--- a/软件测试/作业/assignment4/table.xlsx
+++ b/软件测试/作业/assignment4/table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\大三下\软件测试\作业\assignment4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BE0272EA-DADD-44E2-BDE5-F3E188A8F9FE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8E89368-B627-4B1D-AF9F-99D9E1440486}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7040" xr2:uid="{76792A79-DF49-470A-8F3E-D32B58F56055}"/>
   </bookViews>
@@ -79,23 +79,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>dayray</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>day</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Number of Occurances</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>n1 = 8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>N1 = 17</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -217,6 +205,18 @@
   </si>
   <si>
     <t>B= V/3000 = N*log2(n)/3000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n1 = 9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N1 = 18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dayray</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -609,8 +609,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B9A4494-D380-45EC-968A-B35C16054FC0}">
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -643,16 +643,16 @@
         <v>2</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
@@ -674,14 +674,14 @@
       <c r="F2" s="1">
         <v>1</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>20</v>
+      <c r="G2" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="I2" s="1">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -704,13 +704,13 @@
         <v>1</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="I3" s="1">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
@@ -733,13 +733,13 @@
         <v>1</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="I4" s="1">
-        <v>72.099999999999994</v>
+        <v>76.626720000000006</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
@@ -749,8 +749,8 @@
       <c r="B5" s="1">
         <v>6</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>14</v>
+      <c r="C5" s="1">
+        <v>3</v>
       </c>
       <c r="D5" s="1">
         <v>1</v>
@@ -762,13 +762,13 @@
         <v>1</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="I5" s="1">
-        <v>158.4</v>
+        <v>164.99891</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
@@ -779,7 +779,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="1">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="D6" s="1">
         <v>1</v>
@@ -791,13 +791,13 @@
         <v>1</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="I6" s="1">
-        <v>1.7000000000000001E-2</v>
+        <v>0.151894</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
@@ -808,19 +808,25 @@
         <v>4</v>
       </c>
       <c r="C7" s="1">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="D7" s="1">
         <v>1</v>
       </c>
+      <c r="E7" s="1">
+        <v>100</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1</v>
+      </c>
       <c r="G7" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="I7" s="1">
-        <v>58.8</v>
+        <v>6.5835379999999999</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
@@ -831,19 +837,19 @@
         <v>1</v>
       </c>
       <c r="C8" s="1">
+        <v>10</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="1">
-        <v>1</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="H8" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="I8" s="1">
-        <v>9313.92</v>
+        <v>1085.692</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
@@ -853,65 +859,65 @@
       <c r="B9" s="1">
         <v>1</v>
       </c>
-      <c r="C9" s="1">
-        <v>10</v>
-      </c>
-      <c r="D9" s="1">
-        <v>1</v>
+      <c r="E9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="I9" s="1">
-        <v>4.4999999999999998E-2</v>
+        <v>3.806819</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>19</v>
+      <c r="A10" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" s="1">
+        <v>1</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H10" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="I10" s="1">
+        <v>1.6754000000000002E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="I10" s="1">
-        <v>0.14369999999999999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B11" s="2" t="s">
+        <v>43</v>
+      </c>
       <c r="G11" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="I11" s="1">
-        <v>9</v>
+        <v>9.25</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="G12" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="I12" s="1">
-        <v>5.28E-2</v>
+        <v>5.4996000000000003E-2</v>
       </c>
     </row>
   </sheetData>
